--- a/ExcelProcesser.Tests/test.xlsx
+++ b/ExcelProcesser.Tests/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>40  41  42  43  44  45</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,22 +112,37 @@
     <t>GD18B95M2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>STYLE NO</t>
+  </si>
+  <si>
+    <t>26#</t>
+  </si>
+  <si>
+    <t>27#</t>
+  </si>
+  <si>
+    <t>28#</t>
+  </si>
+  <si>
+    <t>29#</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="179" formatCode="&quot;NT$&quot;#,##0;[Red]\-&quot;NT$&quot;#,##0"/>
-    <numFmt numFmtId="180" formatCode="&quot;NT$&quot;#,##0.00;[Red]\-&quot;NT$&quot;#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="&quot;?&quot;#,##0;[Red]\-&quot;?&quot;#,##0"/>
-    <numFmt numFmtId="182" formatCode="&quot;?&quot;#,##0.00;[Red]\-&quot;?&quot;#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="0.00_)"/>
-    <numFmt numFmtId="184" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="&quot;NT$&quot;#,##0;[Red]\-&quot;NT$&quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="&quot;NT$&quot;#,##0.00;[Red]\-&quot;NT$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="&quot;?&quot;#,##0;[Red]\-&quot;?&quot;#,##0"/>
+    <numFmt numFmtId="170" formatCode="&quot;?&quot;#,##0.00;[Red]\-&quot;?&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.00_)"/>
+    <numFmt numFmtId="172" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -604,32 +619,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="41">
     <cellStyle name="??" xfId="1"/>
     <cellStyle name="?? [0]_SGV" xfId="2"/>
     <cellStyle name="???[0]_PRESHPY3" xfId="3"/>
@@ -737,41 +747,36 @@
     <cellStyle name="?d?A|i_PRSP121" xfId="9"/>
     <cellStyle name="3f1o[0]_PRESHPY3" xfId="10"/>
     <cellStyle name="3f1o_PRESHPY3" xfId="11"/>
-    <cellStyle name="Comma [0]_Inputs" xfId="12"/>
-    <cellStyle name="Comma_1702H" xfId="13"/>
-    <cellStyle name="Currency [0]_Inputs" xfId="14"/>
-    <cellStyle name="Currency_Inputs" xfId="15"/>
-    <cellStyle name="Grey" xfId="16"/>
-    <cellStyle name="Input [yellow]" xfId="17"/>
-    <cellStyle name="Normal - Style1" xfId="18"/>
-    <cellStyle name="Normal_1702H" xfId="19"/>
-    <cellStyle name="Percent [2]" xfId="20"/>
-    <cellStyle name="Tusental (0)_pldt" xfId="21"/>
-    <cellStyle name="Tusental_pldt" xfId="22"/>
-    <cellStyle name="Valuta (0)_pldt" xfId="23"/>
-    <cellStyle name="Valuta_pldt" xfId="24"/>
-    <cellStyle name="标题" xfId="25" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="27" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="28" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="30" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="31"/>
-    <cellStyle name="常规 4" xfId="32"/>
-    <cellStyle name="常规 4 11" xfId="33"/>
-    <cellStyle name="常规 6" xfId="34"/>
-    <cellStyle name="好" xfId="35" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="36" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="37" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="38" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="39" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="40" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="41" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="42" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="43" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="44" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="45" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="33" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="34" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="30" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Grey" xfId="12"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="23" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="24" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="39" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Input [yellow]" xfId="13"/>
+    <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal - Style1" xfId="14"/>
+    <cellStyle name="Note" xfId="40" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent [2]" xfId="15"/>
+    <cellStyle name="Title" xfId="20" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="31" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Tusental (0)_pldt" xfId="16"/>
+    <cellStyle name="Tusental_pldt" xfId="17"/>
+    <cellStyle name="Valuta (0)_pldt" xfId="18"/>
+    <cellStyle name="Valuta_pldt" xfId="19"/>
+    <cellStyle name="Warning Text" xfId="35" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="常规 2" xfId="26"/>
+    <cellStyle name="常规 4" xfId="27"/>
+    <cellStyle name="常规 4 11" xfId="28"/>
+    <cellStyle name="常规 6" xfId="29"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -792,7 +797,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1078,10 +1083,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:H14"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1188,6 +1194,23 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelProcesser.Tests/test.xlsx
+++ b/ExcelProcesser.Tests/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>40  41  42  43  44  45</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,17 +132,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="10">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="&quot;NT$&quot;#,##0;[Red]\-&quot;NT$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;NT$&quot;#,##0.00;[Red]\-&quot;NT$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="&quot;?&quot;#,##0;[Red]\-&quot;?&quot;#,##0"/>
-    <numFmt numFmtId="170" formatCode="&quot;?&quot;#,##0.00;[Red]\-&quot;?&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.00_)"/>
-    <numFmt numFmtId="172" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.00_)"/>
+    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -634,12 +632,12 @@
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,10 +1082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1211,6 +1209,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelProcesser.Tests/test.xlsx
+++ b/ExcelProcesser.Tests/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>40  41  42  43  44  45</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,21 @@
   </si>
   <si>
     <t>29#</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>b7</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1100,7 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1111,10 @@
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1127,10 @@
       <c r="G2" s="3"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="12"/>
       <c r="F3" s="6" t="s">
@@ -1120,7 +1141,10 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="4:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1133,7 +1157,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="10"/>
       <c r="E5" s="12"/>
       <c r="F5" s="4" t="s">
@@ -1144,7 +1168,17 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="9" t="s">
         <v>7</v>
       </c>
@@ -1157,7 +1191,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="10"/>
       <c r="E12" s="12"/>
       <c r="F12" s="6" t="s">
@@ -1168,7 +1202,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1215,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="10"/>
       <c r="E14" s="12"/>
       <c r="F14" s="4" t="s">
